--- a/teste/TEMPO.xlsx
+++ b/teste/TEMPO.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Progs\_PIgpu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Progs\_PIgpu\PIgpu_ImgSeg\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
     <sheet name="Plan4" sheetId="4" r:id="rId4"/>
+    <sheet name="Plan5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>TD</t>
   </si>
@@ -79,14 +80,21 @@
   <si>
     <t>Tempo (ms)</t>
   </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -274,12 +282,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -294,9 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -319,7 +461,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -379,7 +581,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -470,7 +671,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -647,11 +847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1646618928"/>
-        <c:axId val="-1646626544"/>
+        <c:axId val="-1714856320"/>
+        <c:axId val="-1714844896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1646618928"/>
+        <c:axId val="-1714856320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +883,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -750,7 +949,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1646626544"/>
+        <c:crossAx val="-1714844896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1646626544"/>
+        <c:axId val="-1714844896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +1003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -865,7 +1063,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1646618928"/>
+        <c:crossAx val="-1714856320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1283,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1646641776"/>
-        <c:axId val="-1646635792"/>
+        <c:axId val="-1714842176"/>
+        <c:axId val="-1714843264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1646641776"/>
+        <c:axId val="-1714842176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1581,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1646635792"/>
+        <c:crossAx val="-1714843264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,7 +1589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1646635792"/>
+        <c:axId val="-1714843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1693,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1646641776"/>
+        <c:crossAx val="-1714842176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,6 +1735,858 @@
         <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>SpeedUp da TD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan5!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan5!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan5!$G$4:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.5554177230568551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1737368254399057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5774307567504922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6844159182433538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5446065693916982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8148179203595465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9079237025612636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8777792529305648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9445828411897352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9538392896979433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8961573310755613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0097429168994143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9532855462595151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9888557786567436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0983331179738984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0182002099729495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0158084914182473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9985592014910738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.02096669243475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan5!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan5!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan5!$H$4:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.4631393070360475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68615928740237697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91641860648568141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1249871393162791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2783270988103179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4394635415034625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5646244924331165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5898209308541102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.875192922808511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.727118864385783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.892403328012133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.946750416991133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.596723626019976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.930780163466238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.150005949244445</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.957910683704387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.962154016366863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.940431079139969</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.285883385813115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1222727680"/>
+        <c:axId val="-1222723872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1222727680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1222723872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1222723872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>TempO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> (MS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1222727680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1638,6 +2688,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2155,6 +3245,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2699,6 +4285,43 @@
       <xdr:colOff>149086</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3275,11 +4898,11 @@
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3303,20 +4926,20 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>B4*100+100</f>
         <v>300</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>295</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>109</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <f>D4/E4</f>
         <v>2.7064220183486238</v>
       </c>
@@ -3324,20 +4947,20 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f t="shared" ref="C5:C22" si="0">B5*100+100</f>
         <v>400</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>634</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>224</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:F22" si="1">D5/E5</f>
         <v>2.8303571428571428</v>
       </c>
@@ -3345,20 +4968,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>1087</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>375</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>2.8986666666666667</v>
       </c>
@@ -3366,20 +4989,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>1656</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>533</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>3.1069418386491559</v>
       </c>
@@ -3387,20 +5010,20 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>2331</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>747</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>3.1204819277108435</v>
       </c>
@@ -3409,20 +5032,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>3133</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>1034</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>3.0299806576402322</v>
       </c>
@@ -3430,20 +5053,20 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>8</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>4028</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>1269</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>3.174152876280536</v>
       </c>
@@ -3451,20 +5074,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>5047</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>1593</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>3.1682360326428123</v>
       </c>
@@ -3472,20 +5095,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>6285</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>1945</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>3.2313624678663238</v>
       </c>
@@ -3493,20 +5116,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>11</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>7496</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>2339</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="1"/>
         <v>3.2047883710987604</v>
       </c>
@@ -3514,20 +5137,20 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>12</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>9024</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>4695</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>1.9220447284345048</v>
       </c>
@@ -3535,20 +5158,20 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>13</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>10475</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>8657</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>1.2100034654037195</v>
       </c>
@@ -3556,20 +5179,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>14</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>12111</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>10007</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>1.2102528230238834</v>
       </c>
@@ -3577,20 +5200,20 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>15</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>13889</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>11394</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
         <v>1.2189748990696858</v>
       </c>
@@ -3598,20 +5221,20 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>16</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>15527</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>12823</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>1.2108710910083444</v>
       </c>
@@ -3619,20 +5242,20 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>17</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>17624</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>14432</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>1.2211751662971175</v>
       </c>
@@ -3640,20 +5263,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>18</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>19860</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>15563</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>1.2761035790014779</v>
       </c>
@@ -3661,20 +5284,20 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>19</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>22224</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>18582</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f t="shared" si="1"/>
         <v>1.1959961252825315</v>
       </c>
@@ -3682,20 +5305,20 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>20</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>24545</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>19619</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f t="shared" si="1"/>
         <v>1.2510831336969264</v>
       </c>
@@ -3703,11 +5326,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3733,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,50 +5380,50 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>B4*100+100</f>
         <v>300</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>303</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>109</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <f>D4/E4</f>
         <v>2.7798165137614679</v>
       </c>
@@ -3808,20 +5431,20 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
-        <f t="shared" ref="C5:E24" si="0">B5*100+100</f>
+      <c r="C5" s="17">
+        <f t="shared" ref="C5:C22" si="0">B5*100+100</f>
         <v>400</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>629</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>224</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:F22" si="1">D5/E5</f>
         <v>2.8080357142857144</v>
       </c>
@@ -3829,20 +5452,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>1104</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>375</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>2.944</v>
       </c>
@@ -3850,20 +5473,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>1659</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>533</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>3.1125703564727956</v>
       </c>
@@ -3871,20 +5494,20 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>2361</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>714</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>3.3067226890756301</v>
       </c>
@@ -3893,20 +5516,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>3216</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>956</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>3.3640167364016738</v>
       </c>
@@ -3914,20 +5537,20 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>8</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>4028</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>1228</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>3.2801302931596092</v>
       </c>
@@ -3935,20 +5558,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>5062</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>1547</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>3.2721396250808015</v>
       </c>
@@ -3956,20 +5579,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>6250</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>1900</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>3.2894736842105261</v>
       </c>
@@ -3977,20 +5600,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>11</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>7421</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>2282</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="1"/>
         <v>3.251971954425942</v>
       </c>
@@ -3998,20 +5621,20 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>12</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>8988</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>2745</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>3.2743169398907104</v>
       </c>
@@ -4019,20 +5642,20 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>13</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>10551</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>3114</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>3.3882466281310211</v>
       </c>
@@ -4040,20 +5663,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>14</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>12413</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>3616</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>3.4327986725663715</v>
       </c>
@@ -4061,20 +5684,20 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>15</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>14777</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>4290</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
         <v>3.4445221445221446</v>
       </c>
@@ -4082,20 +5705,20 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>16</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>16097</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>4708</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>3.4190739167374682</v>
       </c>
@@ -4103,20 +5726,20 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>17</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>18026</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>5280</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>3.4140151515151516</v>
       </c>
@@ -4124,20 +5747,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>18</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>20253</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>5881</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>3.4438020744771296</v>
       </c>
@@ -4145,20 +5768,20 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>19</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>22549</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>6693</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f t="shared" si="1"/>
         <v>3.3690422829822202</v>
       </c>
@@ -4166,20 +5789,20 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>20</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>24974</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>7381</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f t="shared" si="1"/>
         <v>3.3835523641782954</v>
       </c>
@@ -4187,11 +5810,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,4 +5834,638 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33">
+        <f>B4*100+100</f>
+        <v>300</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.222412</v>
+      </c>
+      <c r="E4" s="39">
+        <v>6.2555799999999995E-2</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0.48022700000000001</v>
+      </c>
+      <c r="G4" s="39">
+        <f>D4/E4</f>
+        <v>3.5554177230568551</v>
+      </c>
+      <c r="H4" s="39">
+        <f>D4/F4</f>
+        <v>0.4631393070360475</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34">
+        <f t="shared" ref="C5:C22" si="0">B5*100+100</f>
+        <v>400</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0.46134399999999998</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.11053499999999999</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.67235699999999998</v>
+      </c>
+      <c r="G5" s="42">
+        <f t="shared" ref="G5:G22" si="1">D5/E5</f>
+        <v>4.1737368254399057</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" ref="H5:H22" si="2">D5/F5</f>
+        <v>0.68615928740237697</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0.78997300000000004</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.17258000000000001</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0.86202199999999995</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" si="1"/>
+        <v>4.5774307567504922</v>
+      </c>
+      <c r="H6" s="44">
+        <f t="shared" si="2"/>
+        <v>0.91641860648568141</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="34">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1.20278</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.25676199999999999</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1.06915</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="1"/>
+        <v>4.6844159182433538</v>
+      </c>
+      <c r="H7" s="44">
+        <f t="shared" si="2"/>
+        <v>1.1249871393162791</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="34">
+        <v>6</v>
+      </c>
+      <c r="C8" s="34">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1.7052499999999999</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.37522499999999998</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1.3339700000000001</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" si="1"/>
+        <v>4.5446065693916982</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="2"/>
+        <v>1.2783270988103179</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="34">
+        <v>7</v>
+      </c>
+      <c r="C9" s="34">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2.2968799999999998</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.47704400000000002</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1.59565</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="1"/>
+        <v>4.8148179203595465</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="2"/>
+        <v>1.4394635415034625</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="34">
+        <v>8</v>
+      </c>
+      <c r="C10" s="34">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D10" s="42">
+        <v>2.9785599999999999</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.60688799999999998</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1.9036900000000001</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="1"/>
+        <v>4.9079237025612636</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="2"/>
+        <v>1.5646244924331165</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="34">
+        <v>9</v>
+      </c>
+      <c r="C11" s="34">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="42">
+        <v>3.7475100000000001</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.76828200000000002</v>
+      </c>
+      <c r="F11" s="43">
+        <v>2.3571900000000001</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="1"/>
+        <v>4.8777792529305648</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="2"/>
+        <v>1.5898209308541102</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="34">
+        <v>10</v>
+      </c>
+      <c r="C12" s="34">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D12" s="42">
+        <v>4.6048900000000001</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.35765599999999997</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" si="1"/>
+        <v>4.9445828411897352</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" si="2"/>
+        <v>12.875192922808511</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="34">
+        <v>11</v>
+      </c>
+      <c r="C13" s="34">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D13" s="42">
+        <v>5.55152</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1.1206499999999999</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0.37695899999999999</v>
+      </c>
+      <c r="G13" s="42">
+        <f t="shared" si="1"/>
+        <v>4.9538392896979433</v>
+      </c>
+      <c r="H13" s="44">
+        <f t="shared" si="2"/>
+        <v>14.727118864385783</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="34">
+        <v>12</v>
+      </c>
+      <c r="C14" s="34">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="D14" s="42">
+        <v>6.5924800000000001</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1.34646</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0.39026300000000003</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="1"/>
+        <v>4.8961573310755613</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="2"/>
+        <v>16.892403328012133</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="34">
+        <v>13</v>
+      </c>
+      <c r="C15" s="34">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D15" s="42">
+        <v>7.7129000000000003</v>
+      </c>
+      <c r="E15" s="42">
+        <v>1.5395799999999999</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.40708299999999997</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="1"/>
+        <v>5.0097429168994143</v>
+      </c>
+      <c r="H15" s="44">
+        <f t="shared" si="2"/>
+        <v>18.946750416991133</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="34">
+        <v>14</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D16" s="42">
+        <v>8.9280000000000008</v>
+      </c>
+      <c r="E16" s="42">
+        <v>1.80244</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.43346699999999999</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="1"/>
+        <v>4.9532855462595151</v>
+      </c>
+      <c r="H16" s="44">
+        <f t="shared" si="2"/>
+        <v>20.596723626019976</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="34">
+        <v>15</v>
+      </c>
+      <c r="C17" s="34">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D17" s="42">
+        <v>10.229100000000001</v>
+      </c>
+      <c r="E17" s="42">
+        <v>2.0503900000000002</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0.44608599999999998</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="1"/>
+        <v>4.9888557786567436</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="2"/>
+        <v>22.930780163466238</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="34">
+        <v>16</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="D18" s="42">
+        <v>11.8368</v>
+      </c>
+      <c r="E18" s="42">
+        <v>2.3216999999999999</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.47064800000000001</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="1"/>
+        <v>5.0983331179738984</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" si="2"/>
+        <v>25.150005949244445</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="34">
+        <v>17</v>
+      </c>
+      <c r="C19" s="34">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D19" s="42">
+        <v>13.0968</v>
+      </c>
+      <c r="E19" s="42">
+        <v>2.6098599999999998</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0.48582399999999998</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="1"/>
+        <v>5.0182002099729495</v>
+      </c>
+      <c r="H19" s="44">
+        <f t="shared" si="2"/>
+        <v>26.957910683704387</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="34">
+        <v>18</v>
+      </c>
+      <c r="C20" s="34">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="D20" s="42">
+        <v>14.6586</v>
+      </c>
+      <c r="E20" s="42">
+        <v>2.9224800000000002</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.52422999999999997</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" si="1"/>
+        <v>5.0158084914182473</v>
+      </c>
+      <c r="H20" s="44">
+        <f t="shared" si="2"/>
+        <v>27.962154016366863</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="34">
+        <v>19</v>
+      </c>
+      <c r="C21" s="34">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D21" s="42">
+        <v>16.305700000000002</v>
+      </c>
+      <c r="E21" s="42">
+        <v>3.2620800000000001</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0.527003</v>
+      </c>
+      <c r="G21" s="42">
+        <f t="shared" si="1"/>
+        <v>4.9985592014910738</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="2"/>
+        <v>30.940431079139969</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="35">
+        <v>20</v>
+      </c>
+      <c r="C22" s="35">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D22" s="45">
+        <v>18.0563</v>
+      </c>
+      <c r="E22" s="45">
+        <v>3.5961799999999999</v>
+      </c>
+      <c r="F22" s="46">
+        <v>0.55926299999999995</v>
+      </c>
+      <c r="G22" s="45">
+        <f t="shared" si="1"/>
+        <v>5.02096669243475</v>
+      </c>
+      <c r="H22" s="47">
+        <f t="shared" si="2"/>
+        <v>32.285883385813115</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/teste/TEMPO.xlsx
+++ b/teste/TEMPO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
     <sheet name="Plan4" sheetId="4" r:id="rId4"/>
     <sheet name="Plan5" sheetId="6" r:id="rId5"/>
+    <sheet name="Plan6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>TD</t>
   </si>
@@ -86,6 +88,24 @@
   <si>
     <t>CPU</t>
   </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>GTX TITAN X</t>
+  </si>
+  <si>
+    <t>GTX 480</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>SpeedUp ( CPU Vs outros )</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +114,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -136,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -419,12 +439,355 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -460,6 +823,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,49 +907,125 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,11 +1352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1714856320"/>
-        <c:axId val="-1714844896"/>
+        <c:axId val="-2026497168"/>
+        <c:axId val="-2026490640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1714856320"/>
+        <c:axId val="-2026497168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +1454,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1714844896"/>
+        <c:crossAx val="-2026490640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1714844896"/>
+        <c:axId val="-2026490640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1568,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1714856320"/>
+        <c:crossAx val="-2026497168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1158,7 +1663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1305,7 +1809,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1481,11 +1984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1714842176"/>
-        <c:axId val="-1714843264"/>
+        <c:axId val="-2022604960"/>
+        <c:axId val="-2022609856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1714842176"/>
+        <c:axId val="-2022604960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +2019,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1581,7 +2083,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1714843264"/>
+        <c:crossAx val="-2022609856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1589,7 +2091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1714843264"/>
+        <c:axId val="-2022609856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +2136,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1693,7 +2194,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1714842176"/>
+        <c:crossAx val="-2022604960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,11 +2801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1222727680"/>
-        <c:axId val="-1222723872"/>
+        <c:axId val="-2022607136"/>
+        <c:axId val="-2022601152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1222727680"/>
+        <c:axId val="-2022607136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2901,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222723872"/>
+        <c:crossAx val="-2022601152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2408,7 +2909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1222723872"/>
+        <c:axId val="-2022601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +3018,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222727680"/>
+        <c:crossAx val="-2022607136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,6 +3097,1021 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>SpeedUp da TD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan6!$K$4:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan6!$K$6:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan6!$L$4:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>OMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan6!$L$6:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>3.5554177230568551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1737368254399057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5774307567504922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6844159182433538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5446065693916982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8148179203595465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9079237025612636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8777792529305648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9445828411897352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9538392896979433</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8961573310755613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0097429168994143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9532855462595151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9888557786567436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0983331179738984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0182002099729495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0158084914182473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9985592014910738</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.02096669243475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan6!$M$4:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GTX TITAN X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan6!$M$6:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>0.4729734902454481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70428822227310883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95635020077987576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1803880389020285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3330597248280176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4932840963761425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6061169796873567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6176139233130027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.929434611766343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.198223643514901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.020758445932092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.617986238458538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.333455907184081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.634306108785808</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.917173205624117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.018363584798639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.527620138491173</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.862469265186022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.574385585309578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan6!$N$4:$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GTX TITAN X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan6!$N$6:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>1.3195531322863703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1980907169160611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.408962736120797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6046459194114955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7050112984182213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8073288377253376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8759864712514092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8832465626758865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.769118246902124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.313426139801422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.17335125997252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.644556704466723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.890081580077293</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.144374673612617</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.626491155902926</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.246797190775908</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.734652068015748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.957123250795448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.102856530524775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan6!$O$4:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GTX 480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan6!$O$6:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>1.1810448284285091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4620638074683956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6597640533243689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.771386072267509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9134635345074253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9729086676802294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9729874740837401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9339092471320423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.52458814418474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.355669056432845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.043945298858766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.379309461769431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.849802901204932</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.34626389181701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.719187866068168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.825498754740231</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.664371779341458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60.863739011963204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.623018308025472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan6!$P$4:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GTX 480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan6!$P$6:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>1.8186962352402447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7066903427482749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8489713282621416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8276914754432165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0531896833012859</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0525817232935961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0124317604453812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9866988283942109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.614367184884557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.087270536325278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.613584500057954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.905015679663563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.828348154136364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.195507915703089</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.21457641390279</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.516018587786888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.110474030982544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.584667247316006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.577429376599909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-117414480"/>
+        <c:axId val="-117410672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-117414480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-117410672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-117410672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-117414480"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -2728,6 +4244,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3741,6 +5297,502 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4329,6 +6381,41 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4650,7 +6737,7 @@
         <v>1.6879999999999999</v>
       </c>
       <c r="F4">
-        <f>C4/D4</f>
+        <f t="shared" ref="F4:F9" si="0">C4/D4</f>
         <v>3.5290284360189572</v>
       </c>
     </row>
@@ -4665,7 +6752,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="0">C5/D5</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999996</v>
       </c>
     </row>
@@ -4779,7 +6866,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <f>C4/D4</f>
+        <f t="shared" ref="F4:F9" si="0">C4/D4</f>
         <v>3.034448818897638</v>
       </c>
     </row>
@@ -4795,7 +6882,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F9" si="0">C5/D5</f>
+        <f t="shared" si="0"/>
         <v>2.5714285714285712</v>
       </c>
     </row>
@@ -4898,11 +6985,11 @@
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5382,11 +7469,11 @@
       <c r="A2" s="5"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5840,7 +7927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -5868,15 +7955,15 @@
       <c r="A2" s="5"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5896,37 +7983,37 @@
       <c r="F3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="31" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="33">
+      <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="27">
         <f>B4*100+100</f>
         <v>300</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="32">
         <v>0.222412</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="33">
         <v>6.2555799999999995E-2</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="34">
         <v>0.48022700000000001</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <f>D4/E4</f>
         <v>3.5554177230568551</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="33">
         <f>D4/F4</f>
         <v>0.4631393070360475</v>
       </c>
@@ -5934,27 +8021,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="34">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="28">
         <f t="shared" ref="C5:C22" si="0">B5*100+100</f>
         <v>400</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="35">
         <v>0.46134399999999998</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="36">
         <v>0.11053499999999999</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="37">
         <v>0.67235699999999998</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="36">
         <f t="shared" ref="G5:G22" si="1">D5/E5</f>
         <v>4.1737368254399057</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="38">
         <f t="shared" ref="H5:H22" si="2">D5/F5</f>
         <v>0.68615928740237697</v>
       </c>
@@ -5962,27 +8049,27 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="34">
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="35">
         <v>0.78997300000000004</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="36">
         <v>0.17258000000000001</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="37">
         <v>0.86202199999999995</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="36">
         <f t="shared" si="1"/>
         <v>4.5774307567504922</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="38">
         <f t="shared" si="2"/>
         <v>0.91641860648568141</v>
       </c>
@@ -5990,27 +8077,27 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="34">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="35">
         <v>1.20278</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="36">
         <v>0.25676199999999999</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="37">
         <v>1.06915</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="36">
         <f t="shared" si="1"/>
         <v>4.6844159182433538</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="38">
         <f t="shared" si="2"/>
         <v>1.1249871393162791</v>
       </c>
@@ -6018,27 +8105,27 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="34">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="35">
         <v>1.7052499999999999</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="36">
         <v>0.37522499999999998</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="37">
         <v>1.3339700000000001</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="36">
         <f t="shared" si="1"/>
         <v>4.5446065693916982</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="38">
         <f t="shared" si="2"/>
         <v>1.2783270988103179</v>
       </c>
@@ -6047,27 +8134,27 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="34">
+      <c r="B9" s="28">
         <v>7</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="35">
         <v>2.2968799999999998</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="36">
         <v>0.47704400000000002</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="37">
         <v>1.59565</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="36">
         <f t="shared" si="1"/>
         <v>4.8148179203595465</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="38">
         <f t="shared" si="2"/>
         <v>1.4394635415034625</v>
       </c>
@@ -6075,27 +8162,27 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="34">
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="28">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="36">
         <v>2.9785599999999999</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="36">
         <v>0.60688799999999998</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="37">
         <v>1.9036900000000001</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="36">
         <f t="shared" si="1"/>
         <v>4.9079237025612636</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="38">
         <f t="shared" si="2"/>
         <v>1.5646244924331165</v>
       </c>
@@ -6103,27 +8190,27 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="34">
+      <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="28">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="36">
         <v>3.7475100000000001</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="36">
         <v>0.76828200000000002</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="37">
         <v>2.3571900000000001</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="36">
         <f t="shared" si="1"/>
         <v>4.8777792529305648</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="38">
         <f t="shared" si="2"/>
         <v>1.5898209308541102</v>
       </c>
@@ -6131,27 +8218,27 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="34">
+      <c r="B12" s="28">
         <v>10</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <v>4.6048900000000001</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="36">
         <v>0.93130000000000002</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="37">
         <v>0.35765599999999997</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="36">
         <f t="shared" si="1"/>
         <v>4.9445828411897352</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="38">
         <f t="shared" si="2"/>
         <v>12.875192922808511</v>
       </c>
@@ -6159,27 +8246,27 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="34">
+      <c r="B13" s="28">
         <v>11</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="28">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <v>5.55152</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <v>1.1206499999999999</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="37">
         <v>0.37695899999999999</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="36">
         <f t="shared" si="1"/>
         <v>4.9538392896979433</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="38">
         <f t="shared" si="2"/>
         <v>14.727118864385783</v>
       </c>
@@ -6187,27 +8274,27 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="34">
+      <c r="B14" s="28">
         <v>12</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="28">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>6.5924800000000001</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="36">
         <v>1.34646</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="37">
         <v>0.39026300000000003</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="36">
         <f t="shared" si="1"/>
         <v>4.8961573310755613</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="38">
         <f t="shared" si="2"/>
         <v>16.892403328012133</v>
       </c>
@@ -6215,27 +8302,27 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="34">
+      <c r="B15" s="28">
         <v>13</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="28">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>7.7129000000000003</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="36">
         <v>1.5395799999999999</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="37">
         <v>0.40708299999999997</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="36">
         <f t="shared" si="1"/>
         <v>5.0097429168994143</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="38">
         <f t="shared" si="2"/>
         <v>18.946750416991133</v>
       </c>
@@ -6243,27 +8330,27 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="34">
+      <c r="B16" s="28">
         <v>14</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="28">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>8.9280000000000008</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="36">
         <v>1.80244</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="37">
         <v>0.43346699999999999</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="36">
         <f t="shared" si="1"/>
         <v>4.9532855462595151</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="38">
         <f t="shared" si="2"/>
         <v>20.596723626019976</v>
       </c>
@@ -6271,27 +8358,27 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="34">
+      <c r="B17" s="28">
         <v>15</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="28">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>10.229100000000001</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="36">
         <v>2.0503900000000002</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="37">
         <v>0.44608599999999998</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="36">
         <f t="shared" si="1"/>
         <v>4.9888557786567436</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="38">
         <f t="shared" si="2"/>
         <v>22.930780163466238</v>
       </c>
@@ -6299,27 +8386,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="34">
+      <c r="B18" s="28">
         <v>16</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="28">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="36">
         <v>11.8368</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="36">
         <v>2.3216999999999999</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="37">
         <v>0.47064800000000001</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="36">
         <f t="shared" si="1"/>
         <v>5.0983331179738984</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="38">
         <f t="shared" si="2"/>
         <v>25.150005949244445</v>
       </c>
@@ -6327,27 +8414,27 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="34">
+      <c r="B19" s="28">
         <v>17</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="28">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="36">
         <v>13.0968</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="36">
         <v>2.6098599999999998</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="37">
         <v>0.48582399999999998</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="36">
         <f t="shared" si="1"/>
         <v>5.0182002099729495</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="38">
         <f t="shared" si="2"/>
         <v>26.957910683704387</v>
       </c>
@@ -6355,27 +8442,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="34">
+      <c r="B20" s="28">
         <v>18</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="28">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="36">
         <v>14.6586</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="36">
         <v>2.9224800000000002</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="37">
         <v>0.52422999999999997</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="36">
         <f t="shared" si="1"/>
         <v>5.0158084914182473</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="38">
         <f t="shared" si="2"/>
         <v>27.962154016366863</v>
       </c>
@@ -6383,27 +8470,27 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="34">
+      <c r="B21" s="28">
         <v>19</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="28">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="36">
         <v>16.305700000000002</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="36">
         <v>3.2620800000000001</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="37">
         <v>0.527003</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="36">
         <f t="shared" si="1"/>
         <v>4.9985592014910738</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="38">
         <f t="shared" si="2"/>
         <v>30.940431079139969</v>
       </c>
@@ -6411,27 +8498,27 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="35">
+      <c r="B22" s="29">
         <v>20</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="29">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="39">
         <v>18.0563</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="39">
         <v>3.5961799999999999</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="40">
         <v>0.55926299999999995</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="39">
         <f t="shared" si="1"/>
         <v>5.02096669243475</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="41">
         <f t="shared" si="2"/>
         <v>32.285883385813115</v>
       </c>
@@ -6468,4 +8555,1279 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="80"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="62"/>
+      <c r="O4" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="91">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
+        <f>B7*100+100</f>
+        <v>300</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.222412</v>
+      </c>
+      <c r="E7" s="38">
+        <v>6.2555799999999995E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.47024199999999999</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0.16855100000000001</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0.18831800000000001</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.122292</v>
+      </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="95">
+        <f>D7/D7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="38">
+        <f>D7/E7</f>
+        <v>3.5554177230568551</v>
+      </c>
+      <c r="M7" s="36">
+        <f>$D7/F7</f>
+        <v>0.4729734902454481</v>
+      </c>
+      <c r="N7" s="36">
+        <f>$D7/G7</f>
+        <v>1.3195531322863703</v>
+      </c>
+      <c r="O7" s="36">
+        <f>$D7/H7</f>
+        <v>1.1810448284285091</v>
+      </c>
+      <c r="P7" s="36">
+        <f>$D7/I7</f>
+        <v>1.8186962352402447</v>
+      </c>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="28">
+        <v>3</v>
+      </c>
+      <c r="C8" s="76">
+        <f t="shared" ref="C8:C25" si="0">B8*100+100</f>
+        <v>400</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0.46134399999999998</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.11053499999999999</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.65505000000000002</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.38506600000000002</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.31554300000000002</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0.27031500000000003</v>
+      </c>
+      <c r="J8" s="79"/>
+      <c r="K8" s="89">
+        <f t="shared" ref="K8:K25" si="1">D8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="36">
+        <f t="shared" ref="L8:L25" si="2">D8/E8</f>
+        <v>4.1737368254399057</v>
+      </c>
+      <c r="M8" s="71">
+        <f t="shared" ref="M8:M25" si="3">$D8/F8</f>
+        <v>0.70428822227310883</v>
+      </c>
+      <c r="N8" s="36">
+        <f t="shared" ref="N8:P22" si="4">$D8/G8</f>
+        <v>1.1980907169160611</v>
+      </c>
+      <c r="O8" s="36">
+        <f t="shared" si="4"/>
+        <v>1.4620638074683956</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="4"/>
+        <v>1.7066903427482749</v>
+      </c>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="28">
+        <v>4</v>
+      </c>
+      <c r="C9" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.78997300000000004</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.17258000000000001</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.82602900000000001</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.56067699999999998</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0.47595500000000002</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0.42725000000000002</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="36">
+        <f t="shared" si="2"/>
+        <v>4.5774307567504922</v>
+      </c>
+      <c r="M9" s="71">
+        <f t="shared" si="3"/>
+        <v>0.95635020077987576</v>
+      </c>
+      <c r="N9" s="36">
+        <f t="shared" si="4"/>
+        <v>1.408962736120797</v>
+      </c>
+      <c r="O9" s="36">
+        <f t="shared" si="4"/>
+        <v>1.6597640533243689</v>
+      </c>
+      <c r="P9" s="36">
+        <f t="shared" si="4"/>
+        <v>1.8489713282621416</v>
+      </c>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="28">
+        <v>5</v>
+      </c>
+      <c r="C10" s="76">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1.20278</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.25676199999999999</v>
+      </c>
+      <c r="F10" s="37">
+        <v>1.0189699999999999</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.74956100000000003</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0.67900499999999997</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.65808699999999998</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="36">
+        <f t="shared" si="2"/>
+        <v>4.6844159182433538</v>
+      </c>
+      <c r="M10" s="71">
+        <f t="shared" si="3"/>
+        <v>1.1803880389020285</v>
+      </c>
+      <c r="N10" s="36">
+        <f t="shared" si="4"/>
+        <v>1.6046459194114955</v>
+      </c>
+      <c r="O10" s="36">
+        <f t="shared" si="4"/>
+        <v>1.771386072267509</v>
+      </c>
+      <c r="P10" s="36">
+        <f t="shared" si="4"/>
+        <v>1.8276914754432165</v>
+      </c>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="28">
+        <v>6</v>
+      </c>
+      <c r="C11" s="76">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1.7052499999999999</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.37522499999999998</v>
+      </c>
+      <c r="F11" s="37">
+        <v>1.2791999999999999</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1.00014</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.891185</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.83053699999999997</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="36">
+        <f t="shared" si="2"/>
+        <v>4.5446065693916982</v>
+      </c>
+      <c r="M11" s="71">
+        <f t="shared" si="3"/>
+        <v>1.3330597248280176</v>
+      </c>
+      <c r="N11" s="36">
+        <f t="shared" si="4"/>
+        <v>1.7050112984182213</v>
+      </c>
+      <c r="O11" s="36">
+        <f t="shared" si="4"/>
+        <v>1.9134635345074253</v>
+      </c>
+      <c r="P11" s="36">
+        <f t="shared" si="4"/>
+        <v>2.0531896833012859</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="28">
+        <v>7</v>
+      </c>
+      <c r="C12" s="76">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D12" s="35">
+        <v>2.2968799999999998</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.47704400000000002</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1.5381400000000001</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1.2708699999999999</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1.16421</v>
+      </c>
+      <c r="I12" s="36">
+        <v>1.1190199999999999</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="36">
+        <f t="shared" si="2"/>
+        <v>4.8148179203595465</v>
+      </c>
+      <c r="M12" s="71">
+        <f t="shared" si="3"/>
+        <v>1.4932840963761425</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="4"/>
+        <v>1.8073288377253376</v>
+      </c>
+      <c r="O12" s="36">
+        <f t="shared" si="4"/>
+        <v>1.9729086676802294</v>
+      </c>
+      <c r="P12" s="36">
+        <f t="shared" si="4"/>
+        <v>2.0525817232935961</v>
+      </c>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="28">
+        <v>8</v>
+      </c>
+      <c r="C13" s="76">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D13" s="36">
+        <v>2.9785599999999999</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.60688799999999998</v>
+      </c>
+      <c r="F13" s="37">
+        <v>1.8545100000000001</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1.5877300000000001</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1.5096700000000001</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1.4800800000000001</v>
+      </c>
+      <c r="J13" s="79"/>
+      <c r="K13" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9079237025612636</v>
+      </c>
+      <c r="M13" s="71">
+        <f t="shared" si="3"/>
+        <v>1.6061169796873567</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" si="4"/>
+        <v>1.8759864712514092</v>
+      </c>
+      <c r="O13" s="36">
+        <f t="shared" si="4"/>
+        <v>1.9729874740837401</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="4"/>
+        <v>2.0124317604453812</v>
+      </c>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="28">
+        <v>9</v>
+      </c>
+      <c r="C14" s="76">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D14" s="36">
+        <v>3.7475100000000001</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.76828200000000002</v>
+      </c>
+      <c r="F14" s="37">
+        <v>2.3166899999999999</v>
+      </c>
+      <c r="G14" s="37">
+        <v>1.9899199999999999</v>
+      </c>
+      <c r="H14" s="37">
+        <v>1.9377899999999999</v>
+      </c>
+      <c r="I14" s="36">
+        <v>1.8863000000000001</v>
+      </c>
+      <c r="J14" s="79"/>
+      <c r="K14" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="36">
+        <f t="shared" si="2"/>
+        <v>4.8777792529305648</v>
+      </c>
+      <c r="M14" s="71">
+        <f t="shared" si="3"/>
+        <v>1.6176139233130027</v>
+      </c>
+      <c r="N14" s="36">
+        <f t="shared" si="4"/>
+        <v>1.8832465626758865</v>
+      </c>
+      <c r="O14" s="36">
+        <f t="shared" si="4"/>
+        <v>1.9339092471320423</v>
+      </c>
+      <c r="P14" s="36">
+        <f t="shared" si="4"/>
+        <v>1.9866988283942109</v>
+      </c>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="28">
+        <v>10</v>
+      </c>
+      <c r="C15" s="76">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D15" s="36">
+        <v>4.6048900000000001</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.33058700000000002</v>
+      </c>
+      <c r="G15" s="37">
+        <v>7.1096999999999994E-2</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.113632</v>
+      </c>
+      <c r="I15" s="36">
+        <v>6.8105200000000005E-2</v>
+      </c>
+      <c r="J15" s="79"/>
+      <c r="K15" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9445828411897352</v>
+      </c>
+      <c r="M15" s="71">
+        <f t="shared" si="3"/>
+        <v>13.929434611766343</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" si="4"/>
+        <v>64.769118246902124</v>
+      </c>
+      <c r="O15" s="36">
+        <f t="shared" si="4"/>
+        <v>40.52458814418474</v>
+      </c>
+      <c r="P15" s="36">
+        <f t="shared" si="4"/>
+        <v>67.614367184884557</v>
+      </c>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="28">
+        <v>11</v>
+      </c>
+      <c r="C16" s="76">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D16" s="36">
+        <v>5.55152</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1.1206499999999999</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.34272399999999997</v>
+      </c>
+      <c r="G16" s="37">
+        <v>8.2472699999999996E-2</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.12804599999999999</v>
+      </c>
+      <c r="I16" s="36">
+        <v>7.7011099999999999E-2</v>
+      </c>
+      <c r="J16" s="79"/>
+      <c r="K16" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9538392896979433</v>
+      </c>
+      <c r="M16" s="71">
+        <f t="shared" si="3"/>
+        <v>16.198223643514901</v>
+      </c>
+      <c r="N16" s="36">
+        <f t="shared" si="4"/>
+        <v>67.313426139801422</v>
+      </c>
+      <c r="O16" s="36">
+        <f t="shared" si="4"/>
+        <v>43.355669056432845</v>
+      </c>
+      <c r="P16" s="36">
+        <f t="shared" si="4"/>
+        <v>72.087270536325278</v>
+      </c>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="28">
+        <v>12</v>
+      </c>
+      <c r="C17" s="76">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="D17" s="36">
+        <v>6.5924800000000001</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1.34646</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.36582700000000001</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.10115300000000001</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0.143178</v>
+      </c>
+      <c r="I17" s="36">
+        <v>9.75023E-2</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" si="2"/>
+        <v>4.8961573310755613</v>
+      </c>
+      <c r="M17" s="71">
+        <f t="shared" si="3"/>
+        <v>18.020758445932092</v>
+      </c>
+      <c r="N17" s="36">
+        <f t="shared" si="4"/>
+        <v>65.17335125997252</v>
+      </c>
+      <c r="O17" s="36">
+        <f t="shared" si="4"/>
+        <v>46.043945298858766</v>
+      </c>
+      <c r="P17" s="36">
+        <f t="shared" si="4"/>
+        <v>67.613584500057954</v>
+      </c>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="28">
+        <v>13</v>
+      </c>
+      <c r="C18" s="76">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D18" s="36">
+        <v>7.7129000000000003</v>
+      </c>
+      <c r="E18" s="36">
+        <v>1.5395799999999999</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.37408599999999997</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.114021</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.156197</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0.110334</v>
+      </c>
+      <c r="J18" s="79"/>
+      <c r="K18" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="36">
+        <f t="shared" si="2"/>
+        <v>5.0097429168994143</v>
+      </c>
+      <c r="M18" s="71">
+        <f t="shared" si="3"/>
+        <v>20.617986238458538</v>
+      </c>
+      <c r="N18" s="36">
+        <f t="shared" si="4"/>
+        <v>67.644556704466723</v>
+      </c>
+      <c r="O18" s="36">
+        <f t="shared" si="4"/>
+        <v>49.379309461769431</v>
+      </c>
+      <c r="P18" s="36">
+        <f t="shared" si="4"/>
+        <v>69.905015679663563</v>
+      </c>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="28">
+        <v>14</v>
+      </c>
+      <c r="C19" s="76">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D19" s="36">
+        <v>8.9280000000000008</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1.80244</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.39975899999999998</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.13974</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.17909800000000001</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0.13359599999999999</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9532855462595151</v>
+      </c>
+      <c r="M19" s="71">
+        <f t="shared" si="3"/>
+        <v>22.333455907184081</v>
+      </c>
+      <c r="N19" s="36">
+        <f t="shared" si="4"/>
+        <v>63.890081580077293</v>
+      </c>
+      <c r="O19" s="36">
+        <f t="shared" si="4"/>
+        <v>49.849802901204932</v>
+      </c>
+      <c r="P19" s="36">
+        <f t="shared" si="4"/>
+        <v>66.828348154136364</v>
+      </c>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="28">
+        <v>15</v>
+      </c>
+      <c r="C20" s="76">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D20" s="36">
+        <v>10.229100000000001</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2.0503900000000002</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.415238</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.15702199999999999</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.19921800000000001</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0.14572299999999999</v>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9888557786567436</v>
+      </c>
+      <c r="M20" s="71">
+        <f t="shared" si="3"/>
+        <v>24.634306108785808</v>
+      </c>
+      <c r="N20" s="36">
+        <f t="shared" si="4"/>
+        <v>65.144374673612617</v>
+      </c>
+      <c r="O20" s="36">
+        <f t="shared" si="4"/>
+        <v>51.34626389181701</v>
+      </c>
+      <c r="P20" s="36">
+        <f t="shared" si="4"/>
+        <v>70.195507915703089</v>
+      </c>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="28">
+        <v>16</v>
+      </c>
+      <c r="C21" s="76">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="D21" s="36">
+        <v>11.8368</v>
+      </c>
+      <c r="E21" s="36">
+        <v>2.3216999999999999</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.439749</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.17503199999999999</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.21631900000000001</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0.171016</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="36">
+        <f t="shared" si="2"/>
+        <v>5.0983331179738984</v>
+      </c>
+      <c r="M21" s="71">
+        <f t="shared" si="3"/>
+        <v>26.917173205624117</v>
+      </c>
+      <c r="N21" s="36">
+        <f t="shared" si="4"/>
+        <v>67.626491155902926</v>
+      </c>
+      <c r="O21" s="36">
+        <f t="shared" si="4"/>
+        <v>54.719187866068168</v>
+      </c>
+      <c r="P21" s="36">
+        <f t="shared" si="4"/>
+        <v>69.21457641390279</v>
+      </c>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="28">
+        <v>17</v>
+      </c>
+      <c r="C22" s="76">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D22" s="36">
+        <v>13.0968</v>
+      </c>
+      <c r="E22" s="36">
+        <v>2.6098599999999998</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.45132800000000001</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.18382299999999999</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.23047400000000001</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0.18313099999999999</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="36">
+        <f t="shared" si="2"/>
+        <v>5.0182002099729495</v>
+      </c>
+      <c r="M22" s="71">
+        <f t="shared" si="3"/>
+        <v>29.018363584798639</v>
+      </c>
+      <c r="N22" s="36">
+        <f t="shared" si="4"/>
+        <v>71.246797190775908</v>
+      </c>
+      <c r="O22" s="36">
+        <f t="shared" si="4"/>
+        <v>56.825498754740231</v>
+      </c>
+      <c r="P22" s="36">
+        <f t="shared" si="4"/>
+        <v>71.516018587786888</v>
+      </c>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="28">
+        <v>18</v>
+      </c>
+      <c r="C23" s="76">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="D23" s="36">
+        <v>14.6586</v>
+      </c>
+      <c r="E23" s="36">
+        <v>2.9224800000000002</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.48017500000000002</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.21965499999999999</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.26333899999999999</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0.21521799999999999</v>
+      </c>
+      <c r="J23" s="79"/>
+      <c r="K23" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="36">
+        <f t="shared" si="2"/>
+        <v>5.0158084914182473</v>
+      </c>
+      <c r="M23" s="71">
+        <f t="shared" si="3"/>
+        <v>30.527620138491173</v>
+      </c>
+      <c r="N23" s="36">
+        <f t="shared" ref="N23:N25" si="5">$D23/G23</f>
+        <v>66.734652068015748</v>
+      </c>
+      <c r="O23" s="36">
+        <f t="shared" ref="O23:O25" si="6">$D23/H23</f>
+        <v>55.664371779341458</v>
+      </c>
+      <c r="P23" s="36">
+        <f t="shared" ref="P23:P25" si="7">$D23/I23</f>
+        <v>68.110474030982544</v>
+      </c>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="28">
+        <v>19</v>
+      </c>
+      <c r="C24" s="76">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D24" s="36">
+        <v>16.305700000000002</v>
+      </c>
+      <c r="E24" s="36">
+        <v>3.2620800000000001</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.49618000000000001</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.226603</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.267905</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0.22159100000000001</v>
+      </c>
+      <c r="J24" s="79"/>
+      <c r="K24" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9985592014910738</v>
+      </c>
+      <c r="M24" s="71">
+        <f t="shared" si="3"/>
+        <v>32.862469265186022</v>
+      </c>
+      <c r="N24" s="36">
+        <f t="shared" si="5"/>
+        <v>71.957123250795448</v>
+      </c>
+      <c r="O24" s="36">
+        <f t="shared" si="6"/>
+        <v>60.863739011963204</v>
+      </c>
+      <c r="P24" s="36">
+        <f t="shared" si="7"/>
+        <v>73.584667247316006</v>
+      </c>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="29">
+        <v>20</v>
+      </c>
+      <c r="C25" s="77">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D25" s="39">
+        <v>18.0563</v>
+      </c>
+      <c r="E25" s="39">
+        <v>3.5961799999999999</v>
+      </c>
+      <c r="F25" s="40">
+        <v>0.52224499999999996</v>
+      </c>
+      <c r="G25" s="40">
+        <v>0.26129599999999997</v>
+      </c>
+      <c r="H25" s="40">
+        <v>0.30800699999999998</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0.26329799999999998</v>
+      </c>
+      <c r="J25" s="79"/>
+      <c r="K25" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="39">
+        <f t="shared" si="2"/>
+        <v>5.02096669243475</v>
+      </c>
+      <c r="M25" s="46">
+        <f t="shared" si="3"/>
+        <v>34.574385585309578</v>
+      </c>
+      <c r="N25" s="39">
+        <f t="shared" si="5"/>
+        <v>69.102856530524775</v>
+      </c>
+      <c r="O25" s="39">
+        <f t="shared" si="6"/>
+        <v>58.623018308025472</v>
+      </c>
+      <c r="P25" s="39">
+        <f t="shared" si="7"/>
+        <v>68.577429376599909</v>
+      </c>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>